--- a/SHCourseGroupCodeAdmin/Template/課程開課檢查樣版.xlsx
+++ b/SHCourseGroupCodeAdmin/Template/課程開課檢查樣版.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="已開課課程" sheetId="1" r:id="rId1"/>
+    <sheet name="課程規劃表" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>學年度</t>
   </si>
@@ -64,6 +65,18 @@
   <si>
     <t>群科班代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>課程規劃名稱</t>
+  </si>
+  <si>
+    <t>學分</t>
+  </si>
+  <si>
+    <t>群科班代碼</t>
+  </si>
+  <si>
+    <t>群科班名稱</t>
   </si>
 </sst>
 </file>
@@ -463,4 +476,55 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.625" customWidth="1"/>
+    <col min="2" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="20.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SHCourseGroupCodeAdmin/Template/課程開課檢查樣版.xlsx
+++ b/SHCourseGroupCodeAdmin/Template/課程開課檢查樣版.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>學年度</t>
   </si>
@@ -77,6 +77,10 @@
   </si>
   <si>
     <t>群科班名稱</t>
+  </si>
+  <si>
+    <t>課程代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -460,7 +464,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
@@ -480,7 +484,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -493,11 +497,11 @@
     <col min="2" max="4" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="20.75" customWidth="1"/>
+    <col min="7" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -520,6 +524,9 @@
         <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
     </row>

--- a/SHCourseGroupCodeAdmin/Template/課程開課檢查樣版.xlsx
+++ b/SHCourseGroupCodeAdmin/Template/課程開課檢查樣版.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>學年度</t>
   </si>
@@ -484,7 +484,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -498,10 +498,11 @@
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.375" customWidth="1"/>
     <col min="7" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="20.75" customWidth="1"/>
+    <col min="9" max="9" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -527,6 +528,9 @@
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
